--- a/biology/Zoologie/Hetrodinae/Hetrodinae.xlsx
+++ b/biology/Zoologie/Hetrodinae/Hetrodinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hetrodinae sont une sous-famille d'orthoptères de la famille des Tettigoniidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent en Afrique et au Proche-Orient.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (28 mars 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (28 mars 2010) :
 Acanthoplini Ebner 1964
 Acanthoplus Stål, 1873
 Cloanthella Bolívar, 1890
@@ -591,7 +607,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brunner von Wattenwyl , 1878 : Monographie der Phaneropteriden. Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien, vol. 28, p. 1-401.</t>
         </is>
